--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16121,6 +16121,1294 @@
         <v>0</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ ਗੁਣ ਅਮੁਲ ਵਾਪਾਰ ॥</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Priceless qualities, priceless transactions.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>ਅਮੋਲਕ</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Qualitative ਗੁਣ</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Adjectives / ਵਿਸ਼ੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>240</v>
+      </c>
+      <c r="O153" t="n">
+        <v>240</v>
+      </c>
+      <c r="P153" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>ਜਪੁ</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ ਗੁਣ ਅਮੁਲ ਵਾਪਾਰ ॥</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Priceless qualities, priceless transactions.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ਗੁਣ</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ਸ਼ਿਵ ਜੀ ਦੇ ਸੇਵਕ| ਗੁਣਾਂ ਦੇ ਕਾਰਨ| ਖ਼ੋਆਂ</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>240</v>
+      </c>
+      <c r="O154" t="n">
+        <v>240</v>
+      </c>
+      <c r="P154" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>ਜਪੁ</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ ਗੁਣ ਅਮੁਲ ਵਾਪਾਰ ॥</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Priceless qualities, priceless transactions.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>ਅਮੋਲਕ</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ਅਮੁਲ</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Qualitative ਗੁਣ</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Adjectives / ਵਿਸ਼ੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>240</v>
+      </c>
+      <c r="O155" t="n">
+        <v>240</v>
+      </c>
+      <c r="P155" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>ਜਪੁ</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Possessive Pronominal / ਸੰਬੰਧ ਦਰਸਾਊ</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>1st Person / ਉੱਤਮ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Adjectives / ਵਿਸ਼ੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O156" t="n">
+        <v>7</v>
+      </c>
+      <c r="P156" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA156" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ਪ੍ਰਭੁ</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ਮਾਲਕ</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ੁ</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O157" t="n">
+        <v>7</v>
+      </c>
+      <c r="P157" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA157" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ਹੈ</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ਹੈਂ</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ਹੈ</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Auxiliary ਅਪੁਰਨ Present</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O158" t="n">
+        <v>7</v>
+      </c>
+      <c r="P158" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA158" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>ਗੁਣ</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ਸਰਗੁਣ</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Dative ਸੰਪ੍ਦਾਨ</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O159" t="n">
+        <v>7</v>
+      </c>
+      <c r="P159" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA159" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ਕਾ</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>ਦਾ</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ਕਾ</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Of</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Postposition / ਸੰਬੰਧਕ</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>4</v>
+      </c>
+      <c r="N160" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O160" t="n">
+        <v>7</v>
+      </c>
+      <c r="P160" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA160" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>ਦਾਤਾ</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>ਦੇਣ ਵਾਲਾ</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>ਕਨਾੱ Ending</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5</v>
+      </c>
+      <c r="N161" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O161" t="n">
+        <v>7</v>
+      </c>
+      <c r="P161" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA161" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ਅਵਗਣ</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Accusative ਕਰਮ</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N162" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O162" t="n">
+        <v>7</v>
+      </c>
+      <c r="P162" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA162" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>ਸਬਦਿ</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>ਆਪਣੇ ਸ਼ਬਦ ਦੀ ਰਾਹੀਂ| ਸ਼ਬਦ ਦੁਆਰਾ| ਸ਼ਬਦ ਨਾਲ</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ਸਬਦਿ</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Instrumental ਕਰਣ</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>7</v>
+      </c>
+      <c r="N163" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O163" t="n">
+        <v>7</v>
+      </c>
+      <c r="P163" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA163" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ਮੇਰਾ ਪ੍ਰਭੁ ਹੈ ਗੁਣ ਕਾ ਦਾਤਾ ਅਵਗਣ ਸਬਦਿ ਜਲਾਏ ॥</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>My Lord is the giver of virtues; vices He burns through the Word.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ਜਲਾਏ</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ਸਾੜਦਾ ਹੈ</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ਆਖਾਏ</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Causative ਪੇ੍ਰਣਾਰਥਕ</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>8</v>
+      </c>
+      <c r="N164" t="n">
+        <v>45230</v>
+      </c>
+      <c r="O164" t="n">
+        <v>7</v>
+      </c>
+      <c r="P164" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>2836</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>ਭੈਰਉ</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੩</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>ਘਰੁ ੨</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>ਸ਼ਬਦ</t>
+        </is>
+      </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA164" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8dac1ccc15e047b/Wisdom/Sikhi/6 Machine Learning/4 Birha/2.1 Main Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4E419F38937EEE0E62355476585DCE3A8743DD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B0D423-85ED-4358-B46B-0AB7974AE8CD}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4E419F38937EEE0E62355476585DCE3A8743DD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4ABC4AA-5D2F-45FE-81F4-94FF052FAB1C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,6 +1220,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,12 +1513,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20548,6 +20548,1008 @@
         <v>0</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ਜਬ</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>ਜਦੋਂ</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ਜਬ</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Time / ਸਮਾ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Adverb / ਕਿਰਿਆ ਵਿਸੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O196" t="n">
+        <v>2</v>
+      </c>
+      <c r="P196" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA196" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ਆਪਾ</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>ਆਪਾ ਪਰ ਕਾ: ਆਪਣੇ ਪਰਾਏ ਵਾਲਾ ਵਿਤਕਰਾ| ਆਪਾ-ਭਾਵ</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ਆਪਾ</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Accusative ਕਰਮ</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Reflexive / ਨਿਜ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Pronoun / ਪੜਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O197" t="n">
+        <v>2</v>
+      </c>
+      <c r="P197" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA197" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ਪਰ</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>ਆਪਾ ਪਰ ਕਾ: ਆਪਣੇ ਪਰਾਏ ਵਾਲਾ ਵਿਤਕਰਾ</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O198" t="n">
+        <v>2</v>
+      </c>
+      <c r="P198" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA198" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>ਕਾ</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>ਆਪਾ ਪਰ ਕਾ: ਆਪਣੇ ਪਰਾਏ ਵਾਲਾ ਵਿਤਕਰਾ| ਦਾ</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ਕਾ</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Of</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Postposition / ਸੰਬੰਧਕ</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3</v>
+      </c>
+      <c r="N199" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O199" t="n">
+        <v>2</v>
+      </c>
+      <c r="P199" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA199" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ਮਿਟਿ</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>ਮਿਟਿ ਜਾਂਤਿ: ਮਿਟ ਜਾਂਦੇ ਹਨ| ਮਿਟਿ ਜਾਤ: ਮਿਟ ਜਾਂਦੇ ਹਨ| ਮਿਟਿ ਜਾਹਿ: ਮਿਟ ਜਾਂਦੇ ਹਨ</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ਕਟਿ</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Participle ਕਿਰਦੰਤ</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Perfect ਪੁਰਬ-ਪੁਰਨ (Root)</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>4</v>
+      </c>
+      <c r="N200" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O200" t="n">
+        <v>2</v>
+      </c>
+      <c r="P200" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA200" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ਗਇਆ</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>ਗਿਆ</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ਗਇਆ</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Plural / ਬਹੁ</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Past ਭੁਤ</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>5</v>
+      </c>
+      <c r="N201" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O201" t="n">
+        <v>2</v>
+      </c>
+      <c r="P201" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA201" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ਜਤ</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>ਜਿਥੇ| ਜਿੱਧਰ</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ਜਤ</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Place / ਥਾਂ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Adverb / ਕਿਰਿਆ ਵਿਸੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N202" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O202" t="n">
+        <v>2</v>
+      </c>
+      <c r="P202" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA202" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ਦੇਖਉ</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>ਮੈਂ ਵੇਖਦਾ ਹਾਂ</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ਦੇਖਉ</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>1st Person / ਉੱਤਮ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>7</v>
+      </c>
+      <c r="N203" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O203" t="n">
+        <v>2</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA203" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ਤਤ</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ਉਥੇ</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ਤਤ</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Place / ਥਾਂ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Adverb / ਕਿਰਿਆ ਵਿਸੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>8</v>
+      </c>
+      <c r="N204" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O204" t="n">
+        <v>2</v>
+      </c>
+      <c r="P204" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA204" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ਜਬ ਆਪਾ ਪਰ ਕਾ ਮਿਟਿ ਗਇਆ ਜਤ ਦੇਖਉ ਤਤ ਤੂ ॥ ੨੦੪ ॥</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>When the self–other distinction was erased, wherever I look, there You are.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>ਤੂ</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>ਤੂੰ!</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ਤੂ</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2nd Person / ਮਧਮ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Pronoun / ਪੜਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>9</v>
+      </c>
+      <c r="N205" t="n">
+        <v>54707</v>
+      </c>
+      <c r="O205" t="n">
+        <v>2</v>
+      </c>
+      <c r="P205" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>3806</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA205" t="n">
+        <v>1375</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24226,6 +24226,612 @@
         <v>0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>ਸਰੀਰ ਉਤੇ| ਬਾਹਰੋਂ</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Without</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Postposition / ਸੰਬੰਧਕ</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O232" t="n">
+        <v>11</v>
+      </c>
+      <c r="P232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA232" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ਭਸਮ</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>ਸੁਆਹ</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Accusative ਕਰਮ</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Feminine / ਇਸਤਰੀ</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O233" t="n">
+        <v>11</v>
+      </c>
+      <c r="P233" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA233" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ਲੇਪਨ</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>No meanings found for ਲੇਪਨ</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Dative ਸੰਪ੍ਦਾਨ</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O234" t="n">
+        <v>11</v>
+      </c>
+      <c r="P234" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA234" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ਕਰੇ</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>ਕਰਿ ਕੇ</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ਕਰੇ</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>3</v>
+      </c>
+      <c r="N235" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O235" t="n">
+        <v>11</v>
+      </c>
+      <c r="P235" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA235" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ਅੰਤਰਿ</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>ਹਿਰਦੇ ਵਿਚ| ਮਨ ਵਿਚ</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ਅੰਤਰਿ</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>In, Inside, Within</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Postposition / ਸੰਬੰਧਕ</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>4</v>
+      </c>
+      <c r="N236" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O236" t="n">
+        <v>11</v>
+      </c>
+      <c r="P236" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA236" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ਬਾਹਰਿ ਭਸਮ ਲੇਪਨ ਕਰੇ ਅੰਤਰਿ ਗੁਬਾਰੀ ॥</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Outwardly, (he) does the ash-smearing; within, there is darkness.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ਗੁਬਾਰੀ</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>ਹਨੇਰਾ</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ਗਿਆਨੀ</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>ਬਿਹਾਰੀ Ending</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>5</v>
+      </c>
+      <c r="N237" t="n">
+        <v>49865</v>
+      </c>
+      <c r="O237" t="n">
+        <v>11</v>
+      </c>
+      <c r="P237" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>3213</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>ਸਾਰੰਗ</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>ਮਹਲਾ ੧</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>ਵਾਰ</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA237" t="n">
+        <v>1243</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24226,6 +24226,935 @@
         <v>0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>ਹੇ ਕਬੀਰ!</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Vocative ਸੰਬੋਧਨ</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1</v>
+      </c>
+      <c r="P232" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA232" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ਮਨੁ</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>ਮਨ</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ਮਨੁ</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA233" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ਜਾਨੈ</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>ਜਾਣਦਾ ਹੈ| ਸਮਝਦਾ ਹੈ| ਪਛਾਣਦਾ ਹੈ</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ੈ</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA234" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ਸਭ</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>ਹਰੇਕ| ਸਾਰੀ</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ਸਭ</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Indefinite / ਅਨਿਸਚੇ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Feminine / ਇਸਤਰੀ</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Adjectives / ਵਿਸ਼ੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>3</v>
+      </c>
+      <c r="N235" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA235" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ਬਾਤ</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>ਗੱਲ| ਕਹਾਣੀ</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Accusative ਕਰਮ</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Feminine / ਇਸਤਰੀ</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>4</v>
+      </c>
+      <c r="N236" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1</v>
+      </c>
+      <c r="P236" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA236" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ਜਾਨਤ</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>ਜਾਣਦਾ ਹੋਇਆ</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ਕਰਤ</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ (Participle form)</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>5</v>
+      </c>
+      <c r="N237" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA237" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ਹੀ</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>ਹੀ</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ਹੀ</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Sress / Emphasis / ਤਾਕੀਦ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Adverb / ਕਿਰਿਆ ਵਿਸੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>6</v>
+      </c>
+      <c r="N238" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA238" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ਅਉਗਨੁ</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>No meanings found for ਅਉਗਨੁ</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ੁ</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Accusative ਕਰਮ</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>7</v>
+      </c>
+      <c r="N239" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1</v>
+      </c>
+      <c r="P239" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA239" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਮਨੁ ਜਾਨੈ ਸਭ ਬਾਤ ਜਾਨਤ ਹੀ ਅਉਗਨੁ ਕਰੈ ॥</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ਕਰੈ</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ਕਰਦਾ ਹੈ| ਕਰਦਾ ਹੈ {ਇਕ-ਵਚਨ}</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ਕਰੈ</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>8</v>
+      </c>
+      <c r="N240" t="n">
+        <v>54730</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>Simple</t>
+        </is>
+      </c>
+      <c r="AA240" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25155,6 +25155,725 @@
         <v>0</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>ਕਿਸ ਵਾਸਤੇ?</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Reason / ਕਾਰਣ ਵਾਚਕ</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Adverb / ਕਿਰਿਆ ਵਿਸੇਸ਼ਣ</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O241" t="n">
+        <v>2</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA241" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>ਕੀ</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>ਦੀ</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>ਕੀ</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Of</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Feminine / ਇਸਤਰੀ</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Postposition / ਸੰਬੰਧਕ</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O242" t="n">
+        <v>2</v>
+      </c>
+      <c r="P242" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA242" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>ਕੁਸਲਾਤ</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>ਸੁਖ</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Genitive ਸੰਬੰਧ</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Feminine / ਇਸਤਰੀ</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O243" t="n">
+        <v>2</v>
+      </c>
+      <c r="P243" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA243" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>ਹਾਥਿ</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>ਹੱਥ ਵਿਚ</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ਿ</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Locative ਅਧਿਕਰਣ</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>3</v>
+      </c>
+      <c r="N244" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA244" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>ਦੀਪੁ</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>ਹਾਥਿ ਦੀਪੁ: ਹੱਥਾਂ ਵਿਚ ਦੀਵਾ</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ੁ</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Nominative ਕਰਤਾ</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>ਮੁਕਤਾ Ending</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>4</v>
+      </c>
+      <c r="N245" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O245" t="n">
+        <v>2</v>
+      </c>
+      <c r="P245" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA245" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ਕੂਏ</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>ਖੂਹ ਵਿਚ</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>ਕੂਏ</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Locative ਅਧਿਕਰਣ</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Masculine / ਪੁਲਿੰਗ</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>ਕੰਨਾ Ending</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Noun / ਨਾਂਵ</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="n">
+        <v>5</v>
+      </c>
+      <c r="N246" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O246" t="n">
+        <v>2</v>
+      </c>
+      <c r="P246" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA246" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ਕਾਹੇ ਕੀ ਕੁਸਲਾਤ ਹਾਥਿ ਦੀਪੁ ਕੂਏ ਪਰੈ ॥੨੧੬॥</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Why (speak) of well-being, (when) the lamp in hand falls into the well?</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>ਪਰੈ</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>ਪੜੈ| ਪੈਂਦਾ ਹੈ</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ਕਰੈ</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Singular / ਇਕ</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Present ਵਰਤਮਾਨ</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Trans / ਨਪੁਂਸਕ</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>3rd Person / ਅਨਯ ਪੁਰਖ</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Verb / ਕਿਰਿਆ</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>6</v>
+      </c>
+      <c r="N247" t="n">
+        <v>54731</v>
+      </c>
+      <c r="O247" t="n">
+        <v>2</v>
+      </c>
+      <c r="P247" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>3818</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ਸਲੋਕ ਭਗਤ ਕਬੀਰ ਜੀਉ ਕੇ </t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>ਕਬੀਰ ਜੀ</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>ਸ਼ਲੋਕ</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>Shalok End</t>
+        </is>
+      </c>
+      <c r="AA247" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -24237,7 +24237,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>5</v>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>ਕਬੀਰ</t>
@@ -24342,7 +24344,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>5</v>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>ਮਨੁ</t>
@@ -24447,7 +24451,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>ਜਾਨੈ</t>
@@ -24552,7 +24558,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>5</v>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>ਸਭ</t>
@@ -24653,7 +24661,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>5</v>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>ਬਾਤ</t>
@@ -24758,7 +24768,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>5</v>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>ਜਾਨਤ</t>
@@ -24863,7 +24875,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>5</v>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>ਹੀ</t>
@@ -24956,20 +24970,18 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>5</v>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>ਅਉਗਨੁ</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>No meanings found for ਅਉਗਨੁ</t>
-        </is>
-      </c>
+      <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>ੁ</t>
+          <t>ਚੰਦਨੁ</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -24998,7 +25010,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M239" t="n">
         <v>7</v>
@@ -25061,7 +25073,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>5</v>
+      </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>ਕਰੈ</t>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -24237,7 +24237,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>ਕਬੀਰ</t>
@@ -24342,7 +24344,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>3</v>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>ਮਨੁ</t>
@@ -24447,7 +24451,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>3</v>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>ਜਾਨੈ</t>
@@ -24552,7 +24558,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>3</v>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>ਸਭ</t>
@@ -24653,7 +24661,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>3</v>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>ਬਾਤ</t>
@@ -24758,7 +24768,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>3</v>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>ਜਾਨਤ</t>
@@ -24863,7 +24875,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>ਹੀ</t>
@@ -24956,7 +24970,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>3</v>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>ਅਉਗਨੁ</t>
@@ -24969,7 +24985,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>ੁ</t>
+          <t>ਚੰਦਨੁ</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -24998,7 +25014,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M239" t="n">
         <v>7</v>
@@ -25061,7 +25077,9 @@
           <t>O Kabir! The mind knows all matter; even while knowing, one indeed commits the fault.</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>3</v>
+      </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>ਕਰੈ</t>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M239" t="n">
         <v>7</v>
@@ -25078,7 +25078,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/1.2.1 assessment_data.xlsx
+++ b/1.2.1 assessment_data.xlsx
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         </is>
       </c>
       <c r="L239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M239" t="n">
         <v>7</v>
@@ -25078,7 +25078,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
